--- a/console/Networking/podChExcel/podMixinsXlsx/components/create/containersBox_add.xlsx
+++ b/console/Networking/podChExcel/podMixinsXlsx/components/create/containersBox_add.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\韩凯\2019.1\1.23\console_1901-24_HO-译文-提交\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="28800" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="ch" sheetId="1" r:id="rId1"/>
@@ -415,698 +410,699 @@
     </r>
   </si>
   <si>
+    <t>containersBox_add_i18nKey_31</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>存活探针</t>
+    </r>
+  </si>
+  <si>
+    <t>Liveness Probe</t>
+  </si>
+  <si>
+    <t>containersBox_add_i18nKey_32</t>
+  </si>
+  <si>
+    <t>To set health check of applications in the container, select one mode among Exec, HttpGet and TcpSocket (Exec by default); reboot operation will be conducted for failed containers by detection according to the reboot policy; probe parameters do not support automatic update</t>
+  </si>
+  <si>
+    <t>containersBox_add_i18nKey_33</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>就绪探针</t>
+    </r>
+  </si>
+  <si>
+    <t>Readiness Probe</t>
+  </si>
+  <si>
+    <t>containersBox_add_i18nKey_34</t>
+  </si>
+  <si>
+    <t>To set service availability check of applications in the container, select one mode among Exec, HttpGet and TcpSocket (Exec by default); probe parameters do not support automatic update</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>一个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Pod</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>中容器名称唯一且不可修改；不可为空，且长度不超过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>63</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>字符，以字母数字开始和结尾，中间可使用小写字母、数字或</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>“-”</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>设置容器被分配的资源上限；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>CPU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>最小为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>100m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>核</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>内存最小为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>64Mi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1G</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>CPU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>核数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>内存的资源限制不超过所选规格类型中设置的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>CPU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>核数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>内存</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>设置容器能够被分配的资源下限；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>CPU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>最小为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>100m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>核</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>容</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>CPU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>核数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>内存的资源需求不超过资源限制中设置的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>CPU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>核数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>内存</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>容器启动时运行的第一条命令，将覆盖镜像中的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Entrypoint</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>指令的命令</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>运行的参数，多个参数请用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>“</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>覆盖镜像中的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>CMD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>指令；如已设置了运行的命令，该条指令将被附加到运行命令的参数中</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>工作目录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>对容器内的应用程序进行健康检查设置，选择</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Exec</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>HttpGet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>TcpSocket</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>三种模式中的一种，默认为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Exec</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>；将根据重启策略对探测失败的容器执行重启操作；探针参数不支持自动更新</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>对容器内的应用程序进行服务可用性检查设置，选择</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Exec</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>HttpGet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>TcpSocket</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>三种模式中的一种，默认为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Exec</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>；探针参数不支持自动更新</t>
+    </r>
+  </si>
+  <si>
+    <t>The first command to be run when starting a container will replace the Entrypoint instruction in the image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Probe</t>
-  </si>
-  <si>
-    <t>containersBox_add_i18nKey_31</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>存活探针</t>
-    </r>
-  </si>
-  <si>
-    <t>Liveness Probe</t>
-  </si>
-  <si>
-    <t>containersBox_add_i18nKey_32</t>
-  </si>
-  <si>
-    <t>To set health check of applications in the container, select one mode among Exec, HttpGet and TcpSocket (Exec by default); reboot operation will be conducted for failed containers by detection according to the reboot policy; probe parameters do not support automatic update</t>
-  </si>
-  <si>
-    <t>containersBox_add_i18nKey_33</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>就绪探针</t>
-    </r>
-  </si>
-  <si>
-    <t>Readiness Probe</t>
-  </si>
-  <si>
-    <t>containersBox_add_i18nKey_34</t>
-  </si>
-  <si>
-    <t>To set service availability check of applications in the container, select one mode among Exec, HttpGet and TcpSocket (Exec by default); probe parameters do not support automatic update</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>一个</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Pod</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>中容器名称唯一且不可修改；不可为空，且长度不超过</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>63</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>字符，以字母数字开始和结尾，中间可使用小写字母、数字或</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>“-”</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>设置容器被分配的资源上限；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>CPU</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>最小为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>100m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>核</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>内存最小为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>64Mi</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>1G</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>CPU</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>核数</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>内存的资源限制不超过所选规格类型中设置的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>CPU</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>核数</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>内存</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>设置容器能够被分配的资源下限；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>CPU</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>最小为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>100m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>核</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>容</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>CPU</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>核数</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>内存的资源需求不超过资源限制中设置的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>CPU</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>核数</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>内存</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>容器启动时运行的第一条命令，将覆盖镜像中的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Entrypoint</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>指令的命令</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>运行的参数，多个参数请用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>“</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>覆盖镜像中的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>CMD</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>指令；如已设置了运行的命令，该条指令将被附加到运行命令的参数中</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>工作目录</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>对容器内的应用程序进行健康检查设置，选择</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Exec</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>HttpGet</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>TcpSocket</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>三种模式中的一种，默认为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Exec</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>；将根据重启策略对探测失败的容器执行重启操作；探针参数不支持自动更新</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>对容器内的应用程序进行服务可用性检查设置，选择</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Exec</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>HttpGet</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>TcpSocket</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>三种模式中的一种，默认为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Exec</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>；探针参数不支持自动更新</t>
-    </r>
-  </si>
-  <si>
-    <t>The first command to be run when starting a container will replace the Entrypoint instruction in the image</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1509,7 +1505,7 @@
   <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="33.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1566,7 +1562,7 @@
         <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>13</v>
@@ -1599,7 +1595,7 @@
         <v>20</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>21</v>
@@ -1610,7 +1606,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>23</v>
@@ -1621,7 +1617,7 @@
         <v>24</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>25</v>
@@ -1643,7 +1639,7 @@
         <v>29</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>30</v>
@@ -1654,7 +1650,7 @@
         <v>31</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>32</v>
@@ -1720,10 +1716,10 @@
         <v>48</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1742,7 +1738,7 @@
         <v>52</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>53</v>
@@ -1764,7 +1760,7 @@
         <v>57</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>58</v>
@@ -1786,7 +1782,7 @@
         <v>62</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>63</v>
@@ -1844,51 +1840,51 @@
         <v>77</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
   </sheetData>
